--- a/out/test/Figori_algorithm_14.xlsx
+++ b/out/test/Figori_algorithm_14.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.67915000000000003</v>
+        <v>0.68169999999999997</v>
       </c>
       <c r="B1">
-        <v>0.89444999999999997</v>
+        <v>0.64570000000000005</v>
       </c>
       <c r="C1">
-        <v>0.64829999999999999</v>
+        <v>0.68294999999999995</v>
       </c>
       <c r="D1">
-        <v>0.89600000000000002</v>
+        <v>0.68145</v>
       </c>
       <c r="E1">
-        <v>0.89544999999999997</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="F1">
+        <v>0.89705000000000001</v>
+      </c>
+      <c r="G1">
+        <v>0.90364999999999995</v>
+      </c>
+      <c r="H1">
+        <v>0.64554999999999996</v>
+      </c>
+      <c r="I1">
+        <v>0.90064999999999995</v>
+      </c>
+      <c r="J1">
+        <v>0.9002</v>
+      </c>
+      <c r="K1">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="L1">
+        <v>0.89944999999999997</v>
+      </c>
+      <c r="M1">
+        <v>0.90715000000000001</v>
+      </c>
+      <c r="N1">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="O1">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="P1">
+        <v>0.89454999999999996</v>
+      </c>
+      <c r="Q1">
+        <v>0.89134999999999998</v>
+      </c>
+      <c r="R1">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="S1">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="T1">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="U1">
+        <v>0.67925000000000002</v>
+      </c>
+      <c r="V1">
         <v>0.89980000000000004</v>
       </c>
-      <c r="G1">
-        <v>0.63114999999999999</v>
-      </c>
-      <c r="H1">
-        <v>0.67725000000000002</v>
-      </c>
-      <c r="I1">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="J1">
-        <v>0.89654999999999996</v>
-      </c>
-      <c r="K1">
-        <v>0.64370000000000005</v>
-      </c>
-      <c r="L1">
-        <v>0.90034999999999998</v>
-      </c>
-      <c r="M1">
-        <v>0.90149999999999997</v>
-      </c>
-      <c r="N1">
-        <v>0.64034999999999997</v>
-      </c>
-      <c r="O1">
-        <v>0.66685000000000005</v>
-      </c>
-      <c r="P1">
-        <v>0.89234999999999998</v>
-      </c>
-      <c r="Q1">
-        <v>0.67115000000000002</v>
-      </c>
-      <c r="R1">
-        <v>0.89654999999999996</v>
-      </c>
-      <c r="S1">
-        <v>0.64359999999999995</v>
-      </c>
-      <c r="T1">
-        <v>0.90134999999999998</v>
-      </c>
-      <c r="U1">
-        <v>0.89464999999999995</v>
-      </c>
-      <c r="V1">
-        <v>0.89315</v>
-      </c>
       <c r="W1">
-        <v>0.90364999999999995</v>
+        <v>0.6804</v>
       </c>
       <c r="X1">
-        <v>0.89170000000000005</v>
+        <v>0.68654999999999999</v>
       </c>
       <c r="Y1">
-        <v>0.68454999999999999</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="Z1">
-        <v>0.9143</v>
+        <v>0.90990000000000004</v>
       </c>
       <c r="AA1">
-        <v>0.89324999999999999</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="AB1">
-        <v>0.67469999999999997</v>
+        <v>0.89644999999999997</v>
       </c>
       <c r="AC1">
-        <v>0.68005000000000004</v>
+        <v>0.68345</v>
       </c>
       <c r="AD1">
-        <v>0.89864999999999995</v>
+        <v>0.89985000000000004</v>
       </c>
       <c r="AE1">
-        <v>0.68005000000000004</v>
+        <v>0.89724999999999999</v>
       </c>
       <c r="AF1">
-        <v>0.64749999999999996</v>
+        <v>0.64295000000000002</v>
       </c>
       <c r="AG1">
-        <v>0.89995000000000003</v>
+        <v>0.88695000000000002</v>
       </c>
       <c r="AH1">
-        <v>0.90334999999999999</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AI1">
+        <v>0.63614999999999999</v>
+      </c>
+      <c r="AJ1">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="AK1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="AL1">
         <v>0.89780000000000004</v>
       </c>
-      <c r="AJ1">
-        <v>0.67945</v>
-      </c>
-      <c r="AK1">
-        <v>0.89864999999999995</v>
-      </c>
-      <c r="AL1">
-        <v>0.90425</v>
-      </c>
       <c r="AM1">
-        <v>0.89975000000000005</v>
+        <v>0.91969999999999996</v>
       </c>
       <c r="AN1">
-        <v>0.88934999999999997</v>
+        <v>0.89839999999999998</v>
       </c>
       <c r="AO1">
-        <v>0.88944999999999996</v>
+        <v>0.64685000000000004</v>
       </c>
       <c r="AP1">
-        <v>0.90444999999999998</v>
+        <v>0.89834999999999998</v>
       </c>
       <c r="AQ1">
-        <v>0.90885000000000005</v>
+        <v>0.68330000000000002</v>
       </c>
       <c r="AR1">
-        <v>0.90254999999999996</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="AS1">
-        <v>0.91305000000000003</v>
+        <v>0.91485000000000005</v>
       </c>
       <c r="AT1">
-        <v>0.89900000000000002</v>
+        <v>0.69274999999999998</v>
       </c>
       <c r="AU1">
-        <v>0.89464999999999995</v>
+        <v>0.64144999999999996</v>
       </c>
       <c r="AV1">
-        <v>0.64415</v>
+        <v>0.89915</v>
       </c>
       <c r="AW1">
-        <v>0.90710000000000002</v>
+        <v>0.64090000000000003</v>
       </c>
       <c r="AX1">
-        <v>0.68030000000000002</v>
+        <v>0.67530000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.68200000000000005</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="B2">
-        <v>0.88100000000000001</v>
+        <v>0.61334999999999995</v>
       </c>
       <c r="C2">
-        <v>0.56359999999999999</v>
+        <v>0.66064999999999996</v>
       </c>
       <c r="D2">
-        <v>0.87314999999999998</v>
+        <v>0.86755000000000004</v>
       </c>
       <c r="E2">
-        <v>0.85194999999999999</v>
+        <v>0.89175000000000004</v>
       </c>
       <c r="F2">
-        <v>0.95309999999999995</v>
+        <v>0.84809999999999997</v>
       </c>
       <c r="G2">
-        <v>0.58960000000000001</v>
+        <v>0.87614999999999998</v>
       </c>
       <c r="H2">
-        <v>0.66400000000000003</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="I2">
-        <v>0.6714</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="J2">
-        <v>0.87624999999999997</v>
+        <v>0.87529999999999997</v>
       </c>
       <c r="K2">
-        <v>0.62070000000000003</v>
+        <v>0.81794999999999995</v>
       </c>
       <c r="L2">
-        <v>0.89119999999999999</v>
+        <v>0.87260000000000004</v>
       </c>
       <c r="M2">
-        <v>0.9052</v>
+        <v>0.88534999999999997</v>
       </c>
       <c r="N2">
-        <v>0.60824999999999996</v>
+        <v>0.88109999999999999</v>
       </c>
       <c r="O2">
-        <v>0.67084999999999995</v>
+        <v>0.86004999999999998</v>
       </c>
       <c r="P2">
-        <v>0.86775000000000002</v>
+        <v>0.82184999999999997</v>
       </c>
       <c r="Q2">
-        <v>0.64880000000000004</v>
+        <v>0.89910000000000001</v>
       </c>
       <c r="R2">
-        <v>0.96260000000000001</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="S2">
-        <v>0.60285</v>
+        <v>0.66425000000000001</v>
       </c>
       <c r="T2">
-        <v>0.88180000000000003</v>
+        <v>0.90164999999999995</v>
       </c>
       <c r="U2">
-        <v>0.86314999999999997</v>
+        <v>0.88349999999999995</v>
       </c>
       <c r="V2">
-        <v>0.85355000000000003</v>
+        <v>0.85365000000000002</v>
       </c>
       <c r="W2">
-        <v>0.88154999999999994</v>
+        <v>0.66920000000000002</v>
       </c>
       <c r="X2">
-        <v>0.89395000000000002</v>
+        <v>0.62805</v>
       </c>
       <c r="Y2">
-        <v>0.64149999999999996</v>
+        <v>0.60629999999999995</v>
       </c>
       <c r="Z2">
-        <v>0.88324999999999998</v>
+        <v>0.87439999999999996</v>
       </c>
       <c r="AA2">
-        <v>0.86014999999999997</v>
+        <v>0.63239999999999996</v>
       </c>
       <c r="AB2">
-        <v>0.66390000000000005</v>
+        <v>0.877</v>
       </c>
       <c r="AC2">
-        <v>0.66405000000000003</v>
+        <v>0.94269999999999998</v>
       </c>
       <c r="AD2">
-        <v>0.85634999999999994</v>
+        <v>0.86950000000000005</v>
       </c>
       <c r="AE2">
-        <v>0.66805000000000003</v>
+        <v>0.86350000000000005</v>
       </c>
       <c r="AF2">
-        <v>0.91610000000000003</v>
+        <v>0.63344999999999996</v>
       </c>
       <c r="AG2">
-        <v>0.88270000000000004</v>
+        <v>0.82925000000000004</v>
       </c>
       <c r="AH2">
-        <v>0.89334999999999998</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.88739999999999997</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.67125000000000001</v>
+        <v>0.86580000000000001</v>
       </c>
       <c r="AK2">
-        <v>0.89049999999999996</v>
+        <v>0.84204999999999997</v>
       </c>
       <c r="AL2">
-        <v>0.88519999999999999</v>
+        <v>0.87024999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.85894999999999999</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="AN2">
-        <v>0.84624999999999995</v>
+        <v>0.82965</v>
       </c>
       <c r="AO2">
-        <v>0.85024999999999995</v>
+        <v>0.60729999999999995</v>
       </c>
       <c r="AP2">
-        <v>0.81540000000000001</v>
+        <v>0.85604999999999998</v>
       </c>
       <c r="AQ2">
-        <v>0.88314999999999999</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="AR2">
-        <v>0.89910000000000001</v>
+        <v>0.8911</v>
       </c>
       <c r="AS2">
-        <v>0.90149999999999997</v>
+        <v>0.85385</v>
       </c>
       <c r="AT2">
-        <v>0.88219999999999998</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="AU2">
-        <v>0.84814999999999996</v>
+        <v>0.61870000000000003</v>
       </c>
       <c r="AV2">
-        <v>0.58325000000000005</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="AW2">
-        <v>0.90790000000000004</v>
+        <v>0.63554999999999995</v>
       </c>
       <c r="AX2">
-        <v>0.65959999999999996</v>
+        <v>0.66910000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.66759999999999997</v>
+        <v>0.63444999999999996</v>
       </c>
       <c r="B3">
-        <v>0.91139999999999999</v>
+        <v>0.56425000000000003</v>
       </c>
       <c r="C3">
-        <v>0.52900000000000003</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="D3">
-        <v>0.96309999999999996</v>
+        <v>0.78149999999999997</v>
       </c>
       <c r="E3">
-        <v>0.98165000000000002</v>
+        <v>0.88044999999999995</v>
       </c>
       <c r="F3">
-        <v>0.92849999999999999</v>
+        <v>0.84045000000000003</v>
       </c>
       <c r="G3">
-        <v>0.49435000000000001</v>
+        <v>0.84004999999999996</v>
       </c>
       <c r="H3">
+        <v>0.48825000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.89615</v>
+      </c>
+      <c r="J3">
+        <v>0.81159999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.89134999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.76575000000000004</v>
+      </c>
+      <c r="M3">
+        <v>0.85435000000000005</v>
+      </c>
+      <c r="N3">
+        <v>0.91495000000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.81194999999999995</v>
+      </c>
+      <c r="P3">
+        <v>0.78064999999999996</v>
+      </c>
+      <c r="Q3">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="R3">
+        <v>0.85785</v>
+      </c>
+      <c r="S3">
+        <v>0.62485000000000002</v>
+      </c>
+      <c r="T3">
+        <v>0.87885000000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.80084999999999995</v>
+      </c>
+      <c r="V3">
+        <v>0.73494999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="X3">
+        <v>0.5575</v>
+      </c>
+      <c r="Y3">
+        <v>0.86885000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>0.8448</v>
+      </c>
+      <c r="AB3">
+        <v>0.78844999999999998</v>
+      </c>
+      <c r="AC3">
+        <v>0.94715000000000005</v>
+      </c>
+      <c r="AD3">
+        <v>0.79679999999999995</v>
+      </c>
+      <c r="AE3">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="AF3">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="AH3">
         <v>0.60509999999999997</v>
       </c>
-      <c r="I3">
-        <v>0.96550000000000002</v>
-      </c>
-      <c r="J3">
-        <v>0.8619</v>
-      </c>
-      <c r="K3">
-        <v>0.80349999999999999</v>
-      </c>
-      <c r="L3">
-        <v>0.8498</v>
-      </c>
-      <c r="M3">
-        <v>0.8891</v>
-      </c>
-      <c r="N3">
-        <v>0.54310000000000003</v>
-      </c>
-      <c r="O3">
-        <v>0.63380000000000003</v>
-      </c>
-      <c r="P3">
-        <v>0.8286</v>
-      </c>
-      <c r="Q3">
-        <v>0.85004999999999997</v>
-      </c>
-      <c r="R3">
-        <v>0.96104999999999996</v>
-      </c>
-      <c r="S3">
-        <v>0.53234999999999999</v>
-      </c>
-      <c r="T3">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="U3">
-        <v>0.84065000000000001</v>
-      </c>
-      <c r="V3">
-        <v>0.86985000000000001</v>
-      </c>
-      <c r="W3">
-        <v>0.87880000000000003</v>
-      </c>
-      <c r="X3">
-        <v>0.88639999999999997</v>
-      </c>
-      <c r="Y3">
-        <v>0.55254999999999999</v>
-      </c>
-      <c r="Z3">
-        <v>0.85940000000000005</v>
-      </c>
-      <c r="AA3">
-        <v>0.94735000000000003</v>
-      </c>
-      <c r="AB3">
-        <v>0.63924999999999998</v>
-      </c>
-      <c r="AC3">
-        <v>0.878</v>
-      </c>
-      <c r="AD3">
-        <v>0.88754999999999995</v>
-      </c>
-      <c r="AE3">
-        <v>0.85124999999999995</v>
-      </c>
-      <c r="AF3">
-        <v>0.9718</v>
-      </c>
-      <c r="AG3">
-        <v>0.91495000000000004</v>
-      </c>
-      <c r="AH3">
-        <v>0.8579</v>
-      </c>
       <c r="AI3">
-        <v>0.82304999999999995</v>
+        <v>0.48845</v>
       </c>
       <c r="AJ3">
-        <v>0.8206</v>
+        <v>0.82889999999999997</v>
       </c>
       <c r="AK3">
-        <v>0.82609999999999995</v>
+        <v>0.79854999999999998</v>
       </c>
       <c r="AL3">
-        <v>0.88</v>
+        <v>0.80195000000000005</v>
       </c>
       <c r="AM3">
-        <v>0.82350000000000001</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="AN3">
-        <v>0.79205000000000003</v>
+        <v>0.78185000000000004</v>
       </c>
       <c r="AO3">
-        <v>0.77280000000000004</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="AP3">
-        <v>0.70865</v>
+        <v>0.8569</v>
       </c>
       <c r="AQ3">
-        <v>0.82055</v>
+        <v>0.64639999999999997</v>
       </c>
       <c r="AR3">
-        <v>0.85140000000000005</v>
+        <v>0.72765000000000002</v>
       </c>
       <c r="AS3">
-        <v>0.88170000000000004</v>
+        <v>0.84109999999999996</v>
       </c>
       <c r="AT3">
-        <v>0.81740000000000002</v>
+        <v>0.88934999999999997</v>
       </c>
       <c r="AU3">
-        <v>0.80520000000000003</v>
+        <v>0.77590000000000003</v>
       </c>
       <c r="AV3">
-        <v>0.44069999999999998</v>
+        <v>0.84465000000000001</v>
       </c>
       <c r="AW3">
-        <v>0.82274999999999998</v>
+        <v>0.55505000000000004</v>
       </c>
       <c r="AX3">
-        <v>0.52790000000000004</v>
+        <v>0.79749999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.93805000000000005</v>
+        <v>0.74544999999999995</v>
       </c>
       <c r="B4">
-        <v>0.83989999999999998</v>
+        <v>0.49254999999999999</v>
       </c>
       <c r="C4">
-        <v>0.39955000000000002</v>
+        <v>0.50895000000000001</v>
       </c>
       <c r="D4">
-        <v>0.93715000000000004</v>
+        <v>0.71684999999999999</v>
       </c>
       <c r="E4">
-        <v>0.92064999999999997</v>
+        <v>0.76795000000000002</v>
       </c>
       <c r="F4">
-        <v>0.91705000000000003</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="G4">
-        <v>0.58899999999999997</v>
+        <v>0.75444999999999995</v>
       </c>
       <c r="H4">
-        <v>0.46994999999999998</v>
+        <v>0.68510000000000004</v>
       </c>
       <c r="I4">
-        <v>0.9234</v>
+        <v>0.87539999999999996</v>
       </c>
       <c r="J4">
-        <v>0.75360000000000005</v>
+        <v>0.72104999999999997</v>
       </c>
       <c r="K4">
-        <v>0.83960000000000001</v>
+        <v>0.85214999999999996</v>
       </c>
       <c r="L4">
-        <v>0.74919999999999998</v>
+        <v>0.74514999999999998</v>
       </c>
       <c r="M4">
-        <v>0.98765000000000003</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="N4">
-        <v>0.39984999999999998</v>
+        <v>0.86829999999999996</v>
       </c>
       <c r="O4">
-        <v>0.88770000000000004</v>
+        <v>0.69915000000000005</v>
       </c>
       <c r="P4">
-        <v>0.74519999999999997</v>
+        <v>0.65344999999999998</v>
       </c>
       <c r="Q4">
-        <v>0.72460000000000002</v>
+        <v>0.91690000000000005</v>
       </c>
       <c r="R4">
-        <v>0.92754999999999999</v>
+        <v>0.7732</v>
       </c>
       <c r="S4">
-        <v>0.91964999999999997</v>
+        <v>0.54395000000000004</v>
       </c>
       <c r="T4">
-        <v>0.75419999999999998</v>
+        <v>0.83450000000000002</v>
       </c>
       <c r="U4">
-        <v>0.95840000000000003</v>
+        <v>0.71025000000000005</v>
       </c>
       <c r="V4">
-        <v>0.77605000000000002</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="W4">
-        <v>0.81605000000000005</v>
+        <v>0.68645</v>
       </c>
       <c r="X4">
-        <v>0.79984999999999995</v>
+        <v>0.52349999999999997</v>
       </c>
       <c r="Y4">
-        <v>0.69379999999999997</v>
+        <v>0.82130000000000003</v>
       </c>
       <c r="Z4">
-        <v>0.80954999999999999</v>
+        <v>0.86380000000000001</v>
       </c>
       <c r="AA4">
-        <v>0.87129999999999996</v>
+        <v>0.76349999999999996</v>
       </c>
       <c r="AB4">
-        <v>0.56240000000000001</v>
+        <v>0.74704999999999999</v>
       </c>
       <c r="AC4">
-        <v>0.8206</v>
+        <v>0.95279999999999998</v>
       </c>
       <c r="AD4">
-        <v>0.76770000000000005</v>
+        <v>0.90769999999999995</v>
       </c>
       <c r="AE4">
-        <v>0.94840000000000002</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.91269999999999996</v>
+        <v>0.42349999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.93645</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="AH4">
-        <v>0.76439999999999997</v>
+        <v>0.58055000000000001</v>
       </c>
       <c r="AI4">
-        <v>0.7389</v>
+        <v>0.70874999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.67810000000000004</v>
+        <v>0.95135000000000003</v>
       </c>
       <c r="AK4">
-        <v>0.71004999999999996</v>
+        <v>0.79195000000000004</v>
       </c>
       <c r="AL4">
-        <v>0.80120000000000002</v>
+        <v>0.63429999999999997</v>
       </c>
       <c r="AM4">
-        <v>0.72594999999999998</v>
+        <v>0.95355000000000001</v>
       </c>
       <c r="AN4">
-        <v>0.66849999999999998</v>
+        <v>0.69974999999999998</v>
       </c>
       <c r="AO4">
-        <v>0.74829999999999997</v>
+        <v>0.48604999999999998</v>
       </c>
       <c r="AP4">
-        <v>0.62544999999999995</v>
+        <v>0.77234999999999998</v>
       </c>
       <c r="AQ4">
-        <v>0.752</v>
+        <v>0.90325</v>
       </c>
       <c r="AR4">
-        <v>0.95855000000000001</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="AS4">
-        <v>0.82084999999999997</v>
+        <v>0.75109999999999999</v>
       </c>
       <c r="AT4">
-        <v>0.76734999999999998</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="AU4">
-        <v>0.66205000000000003</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="AV4">
-        <v>0.72099999999999997</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="AW4">
-        <v>0.76359999999999995</v>
+        <v>0.63270000000000004</v>
       </c>
       <c r="AX4">
-        <v>0.44864999999999999</v>
+        <v>0.67159999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.93045</v>
+        <v>0.67544999999999999</v>
       </c>
       <c r="B5">
-        <v>0.71655000000000002</v>
+        <v>0.35460000000000003</v>
       </c>
       <c r="C5">
-        <v>0.59055000000000002</v>
+        <v>0.4718</v>
       </c>
       <c r="D5">
-        <v>0.87375000000000003</v>
+        <v>0.70955000000000001</v>
       </c>
       <c r="E5">
-        <v>0.8054</v>
+        <v>0.82230000000000003</v>
       </c>
       <c r="F5">
-        <v>0.86695</v>
+        <v>0.92679999999999996</v>
       </c>
       <c r="G5">
-        <v>0.38624999999999998</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="H5">
-        <v>0.36954999999999999</v>
+        <v>0.5726</v>
       </c>
       <c r="I5">
-        <v>0.80654999999999999</v>
+        <v>0.84214999999999995</v>
       </c>
       <c r="J5">
-        <v>0.60135000000000005</v>
+        <v>0.71255000000000002</v>
       </c>
       <c r="K5">
-        <v>0.93735000000000002</v>
+        <v>0.7238</v>
       </c>
       <c r="L5">
-        <v>0.65834999999999999</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="M5">
-        <v>0.97309999999999997</v>
+        <v>0.63105</v>
       </c>
       <c r="N5">
-        <v>0.78959999999999997</v>
+        <v>0.85294999999999999</v>
       </c>
       <c r="O5">
-        <v>0.87370000000000003</v>
+        <v>0.68479999999999996</v>
       </c>
       <c r="P5">
-        <v>0.94445000000000001</v>
+        <v>0.65815000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.84214999999999995</v>
+        <v>0.9345</v>
       </c>
       <c r="R5">
-        <v>0.92630000000000001</v>
+        <v>0.76939999999999997</v>
       </c>
       <c r="S5">
-        <v>0.86619999999999997</v>
+        <v>0.52475000000000005</v>
       </c>
       <c r="T5">
-        <v>0.74270000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="U5">
-        <v>0.93764999999999998</v>
+        <v>0.61975000000000002</v>
       </c>
       <c r="V5">
-        <v>0.67105000000000004</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="W5">
-        <v>0.62119999999999997</v>
+        <v>0.64485000000000003</v>
       </c>
       <c r="X5">
-        <v>0.95340000000000003</v>
+        <v>0.41020000000000001</v>
       </c>
       <c r="Y5">
-        <v>0.65510000000000002</v>
+        <v>0.74219999999999997</v>
       </c>
       <c r="Z5">
-        <v>0.85724999999999996</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="AA5">
-        <v>0.85350000000000004</v>
+        <v>0.61094999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.44879999999999998</v>
+        <v>0.78174999999999994</v>
       </c>
       <c r="AC5">
-        <v>0.73024999999999995</v>
+        <v>0.96884999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.63265000000000005</v>
+        <v>0.88185000000000002</v>
       </c>
       <c r="AE5">
-        <v>0.92745</v>
+        <v>0.46715000000000001</v>
       </c>
       <c r="AF5">
-        <v>0.91739999999999999</v>
+        <v>0.32129999999999997</v>
       </c>
       <c r="AG5">
-        <v>0.94189999999999996</v>
+        <v>0.57984999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.64605000000000001</v>
+        <v>0.43745000000000001</v>
       </c>
       <c r="AI5">
-        <v>0.60394999999999999</v>
+        <v>0.52415</v>
       </c>
       <c r="AJ5">
-        <v>0.55044999999999999</v>
+        <v>0.97494999999999998</v>
       </c>
       <c r="AK5">
-        <v>0.70255000000000001</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="AL5">
-        <v>0.69994999999999996</v>
+        <v>0.65595000000000003</v>
       </c>
       <c r="AM5">
-        <v>0.60194999999999999</v>
+        <v>0.83530000000000004</v>
       </c>
       <c r="AN5">
-        <v>0.67869999999999997</v>
+        <v>0.59765000000000001</v>
       </c>
       <c r="AO5">
-        <v>0.68254999999999999</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="AP5">
-        <v>0.65680000000000005</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0.51759999999999995</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="AR5">
-        <v>0.93159999999999998</v>
+        <v>0.68574999999999997</v>
       </c>
       <c r="AS5">
-        <v>0.75195000000000001</v>
+        <v>0.66139999999999999</v>
       </c>
       <c r="AT5">
-        <v>0.93664999999999998</v>
+        <v>0.89949999999999997</v>
       </c>
       <c r="AU5">
-        <v>0.68149999999999999</v>
+        <v>0.72014999999999996</v>
       </c>
       <c r="AV5">
-        <v>0.77264999999999995</v>
+        <v>0.63915</v>
       </c>
       <c r="AW5">
-        <v>0.71145000000000003</v>
+        <v>0.42585000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.62004999999999999</v>
+        <v>0.57935000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.77949999999999997</v>
+        <v>0.45934999999999998</v>
       </c>
       <c r="B6">
-        <v>0.79710000000000003</v>
+        <v>0.53649999999999998</v>
       </c>
       <c r="C6">
-        <v>0.77575000000000005</v>
+        <v>0.77995000000000003</v>
       </c>
       <c r="D6">
-        <v>0.82079999999999997</v>
+        <v>0.86234999999999995</v>
       </c>
       <c r="E6">
-        <v>0.85214999999999996</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="F6">
-        <v>0.87975000000000003</v>
+        <v>0.9204</v>
       </c>
       <c r="G6">
-        <v>0.27725</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="H6">
-        <v>0.33124999999999999</v>
+        <v>0.63439999999999996</v>
       </c>
       <c r="I6">
-        <v>0.93605000000000005</v>
+        <v>0.85680000000000001</v>
       </c>
       <c r="J6">
-        <v>0.61795</v>
+        <v>0.5403</v>
       </c>
       <c r="K6">
-        <v>0.91710000000000003</v>
+        <v>0.80730000000000002</v>
       </c>
       <c r="L6">
-        <v>0.78069999999999995</v>
+        <v>0.78615000000000002</v>
       </c>
       <c r="M6">
-        <v>0.9607</v>
+        <v>0.80354999999999999</v>
       </c>
       <c r="N6">
-        <v>0.64365000000000006</v>
+        <v>0.79479999999999995</v>
       </c>
       <c r="O6">
-        <v>0.8488</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="P6">
-        <v>0.79315000000000002</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="Q6">
-        <v>0.69364999999999999</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="R6">
-        <v>0.83165</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="S6">
-        <v>0.89415</v>
+        <v>0.36209999999999998</v>
       </c>
       <c r="T6">
-        <v>0.66120000000000001</v>
+        <v>0.60945000000000005</v>
       </c>
       <c r="U6">
-        <v>0.83020000000000005</v>
+        <v>0.81784999999999997</v>
       </c>
       <c r="V6">
-        <v>0.48430000000000001</v>
+        <v>0.63390000000000002</v>
       </c>
       <c r="W6">
-        <v>0.44579999999999997</v>
+        <v>0.59394999999999998</v>
       </c>
       <c r="X6">
-        <v>0.98</v>
+        <v>0.31264999999999998</v>
       </c>
       <c r="Y6">
-        <v>0.56730000000000003</v>
+        <v>0.61465000000000003</v>
       </c>
       <c r="Z6">
-        <v>0.76454999999999995</v>
+        <v>0.85535000000000005</v>
       </c>
       <c r="AA6">
-        <v>0.80200000000000005</v>
+        <v>0.63475000000000004</v>
       </c>
       <c r="AB6">
-        <v>0.44514999999999999</v>
+        <v>0.76524999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.69569999999999999</v>
+        <v>0.92520000000000002</v>
       </c>
       <c r="AD6">
-        <v>0.36959999999999998</v>
+        <v>0.89934999999999998</v>
       </c>
       <c r="AE6">
-        <v>0.81425000000000003</v>
+        <v>0.3594</v>
       </c>
       <c r="AF6">
-        <v>0.96274999999999999</v>
+        <v>0.66379999999999995</v>
       </c>
       <c r="AG6">
-        <v>0.96325000000000005</v>
+        <v>0.47294999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.4919</v>
+        <v>0.43469999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.62709999999999999</v>
+        <v>0.31924999999999998</v>
       </c>
       <c r="AJ6">
-        <v>0.44280000000000003</v>
+        <v>0.90825</v>
       </c>
       <c r="AK6">
-        <v>0.70525000000000004</v>
+        <v>0.78185000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.61855000000000004</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="AM6">
-        <v>0.39765</v>
+        <v>0.68935000000000002</v>
       </c>
       <c r="AN6">
-        <v>0.55615000000000003</v>
+        <v>0.51265000000000005</v>
       </c>
       <c r="AO6">
-        <v>0.81035000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="AP6">
-        <v>0.50939999999999996</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="AQ6">
-        <v>0.39074999999999999</v>
+        <v>0.76075000000000004</v>
       </c>
       <c r="AR6">
-        <v>0.90015000000000001</v>
+        <v>0.83804999999999996</v>
       </c>
       <c r="AS6">
-        <v>0.67479999999999996</v>
+        <v>0.55679999999999996</v>
       </c>
       <c r="AT6">
-        <v>0.86424999999999996</v>
+        <v>0.89354999999999996</v>
       </c>
       <c r="AU6">
-        <v>0.75790000000000002</v>
+        <v>0.81735000000000002</v>
       </c>
       <c r="AV6">
-        <v>0.73440000000000005</v>
+        <v>0.62965000000000004</v>
       </c>
       <c r="AW6">
-        <v>0.75080000000000002</v>
+        <v>0.58474999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.82979999999999998</v>
+        <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.52769999999999995</v>
+        <v>0.50075000000000003</v>
       </c>
       <c r="B7">
-        <v>0.65354999999999996</v>
+        <v>0.50214999999999999</v>
       </c>
       <c r="C7">
-        <v>0.84494999999999998</v>
+        <v>0.79039999999999999</v>
       </c>
       <c r="D7">
-        <v>0.7984</v>
+        <v>0.752</v>
       </c>
       <c r="E7">
-        <v>0.71535000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="F7">
-        <v>0.82069999999999999</v>
+        <v>0.86275000000000002</v>
       </c>
       <c r="G7">
-        <v>0.14885000000000001</v>
+        <v>0.74485000000000001</v>
       </c>
       <c r="H7">
-        <v>0.52534999999999998</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="I7">
-        <v>0.77749999999999997</v>
+        <v>0.81840000000000002</v>
       </c>
       <c r="J7">
-        <v>0.61990000000000001</v>
+        <v>0.47470000000000001</v>
       </c>
       <c r="K7">
-        <v>0.96020000000000005</v>
+        <v>0.66685000000000005</v>
       </c>
       <c r="L7">
-        <v>0.48254999999999998</v>
+        <v>0.59584999999999999</v>
       </c>
       <c r="M7">
-        <v>0.95645000000000002</v>
+        <v>0.73734999999999995</v>
       </c>
       <c r="N7">
-        <v>0.74890000000000001</v>
+        <v>0.76905000000000001</v>
       </c>
       <c r="O7">
-        <v>0.81069999999999998</v>
+        <v>0.38464999999999999</v>
       </c>
       <c r="P7">
-        <v>0.85435000000000005</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="Q7">
-        <v>0.76224999999999998</v>
+        <v>0.89734999999999998</v>
       </c>
       <c r="R7">
-        <v>0.85124999999999995</v>
+        <v>0.80274999999999996</v>
       </c>
       <c r="S7">
-        <v>0.68210000000000004</v>
+        <v>0.46975</v>
       </c>
       <c r="T7">
-        <v>0.78825000000000001</v>
+        <v>0.58125000000000004</v>
       </c>
       <c r="U7">
-        <v>0.69789999999999996</v>
+        <v>0.91</v>
       </c>
       <c r="V7">
-        <v>0.51334999999999997</v>
+        <v>0.59565000000000001</v>
       </c>
       <c r="W7">
-        <v>0.60535000000000005</v>
+        <v>0.45734999999999998</v>
       </c>
       <c r="X7">
-        <v>0.95745000000000002</v>
+        <v>0.46870000000000001</v>
       </c>
       <c r="Y7">
-        <v>0.61895</v>
+        <v>0.55154999999999998</v>
       </c>
       <c r="Z7">
-        <v>0.56684999999999997</v>
+        <v>0.78715000000000002</v>
       </c>
       <c r="AA7">
-        <v>0.75634999999999997</v>
+        <v>0.7873</v>
       </c>
       <c r="AB7">
-        <v>0.51434999999999997</v>
+        <v>0.86024999999999996</v>
       </c>
       <c r="AC7">
-        <v>0.75185000000000002</v>
+        <v>0.74224999999999997</v>
       </c>
       <c r="AD7">
-        <v>0.41410000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="AE7">
-        <v>0.65210000000000001</v>
+        <v>0.70960000000000001</v>
       </c>
       <c r="AF7">
-        <v>0.9083</v>
+        <v>0.68174999999999997</v>
       </c>
       <c r="AG7">
-        <v>0.91435</v>
+        <v>0.19725000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.37430000000000002</v>
+        <v>0.33829999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.53739999999999999</v>
+        <v>0.56254999999999999</v>
       </c>
       <c r="AJ7">
-        <v>0.65310000000000001</v>
+        <v>0.87395</v>
       </c>
       <c r="AK7">
-        <v>0.44535000000000002</v>
+        <v>0.70494999999999997</v>
       </c>
       <c r="AL7">
-        <v>0.51139999999999997</v>
+        <v>0.54925000000000002</v>
       </c>
       <c r="AM7">
-        <v>0.31319999999999998</v>
+        <v>0.56205000000000005</v>
       </c>
       <c r="AN7">
-        <v>0.51659999999999995</v>
+        <v>0.64315</v>
       </c>
       <c r="AO7">
-        <v>0.65734999999999999</v>
+        <v>0.45445000000000002</v>
       </c>
       <c r="AP7">
-        <v>0.52980000000000005</v>
+        <v>0.36754999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.35260000000000002</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="AR7">
-        <v>0.9143</v>
+        <v>0.63365000000000005</v>
       </c>
       <c r="AS7">
-        <v>0.72460000000000002</v>
+        <v>0.44990000000000002</v>
       </c>
       <c r="AT7">
-        <v>0.81140000000000001</v>
+        <v>0.86219999999999997</v>
       </c>
       <c r="AU7">
-        <v>0.56499999999999995</v>
+        <v>0.63734999999999997</v>
       </c>
       <c r="AV7">
-        <v>0.75944999999999996</v>
+        <v>0.60680000000000001</v>
       </c>
       <c r="AW7">
-        <v>0.83030000000000004</v>
+        <v>0.47294999999999998</v>
       </c>
       <c r="AX7">
-        <v>0.80900000000000005</v>
+        <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.48520000000000002</v>
+        <v>0.54415000000000002</v>
       </c>
       <c r="B8">
-        <v>0.42335</v>
+        <v>0.48594999999999999</v>
       </c>
       <c r="C8">
-        <v>0.73</v>
+        <v>0.71319999999999995</v>
       </c>
       <c r="D8">
-        <v>0.65669999999999995</v>
+        <v>0.85545000000000004</v>
       </c>
       <c r="E8">
-        <v>0.46455000000000002</v>
+        <v>0.74285000000000001</v>
       </c>
       <c r="F8">
-        <v>0.85770000000000002</v>
+        <v>0.91949999999999998</v>
       </c>
       <c r="G8">
-        <v>1.8550000000000001E-2</v>
+        <v>0.74229999999999996</v>
       </c>
       <c r="H8">
-        <v>0.61229999999999996</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="I8">
-        <v>0.70779999999999998</v>
+        <v>0.83635000000000004</v>
       </c>
       <c r="J8">
-        <v>0.53810000000000002</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="K8">
-        <v>0.84909999999999997</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="L8">
-        <v>0.22764999999999999</v>
+        <v>0.69674999999999998</v>
       </c>
       <c r="M8">
-        <v>0.93064999999999998</v>
+        <v>0.91439999999999999</v>
       </c>
       <c r="N8">
-        <v>0.71730000000000005</v>
+        <v>0.54584999999999995</v>
       </c>
       <c r="O8">
-        <v>0.93079999999999996</v>
+        <v>0.21465000000000001</v>
       </c>
       <c r="P8">
-        <v>0.68769999999999998</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="Q8">
-        <v>0.65315000000000001</v>
+        <v>0.86739999999999995</v>
       </c>
       <c r="R8">
-        <v>0.78320000000000001</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="S8">
-        <v>0.49804999999999999</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="T8">
-        <v>0.93049999999999999</v>
+        <v>0.5665</v>
       </c>
       <c r="U8">
-        <v>0.85519999999999996</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="V8">
-        <v>0.54235</v>
+        <v>0.72150000000000003</v>
       </c>
       <c r="W8">
-        <v>0.39045000000000002</v>
+        <v>0.65225</v>
       </c>
       <c r="X8">
-        <v>0.90869999999999995</v>
+        <v>0.55420000000000003</v>
       </c>
       <c r="Y8">
-        <v>0.76319999999999999</v>
+        <v>0.41139999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.56045</v>
+        <v>0.62244999999999995</v>
       </c>
       <c r="AA8">
-        <v>0.63414999999999999</v>
+        <v>0.54325000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.59609999999999996</v>
+        <v>0.87334999999999996</v>
       </c>
       <c r="AC8">
-        <v>0.98850000000000005</v>
+        <v>0.67484999999999995</v>
       </c>
       <c r="AD8">
-        <v>0.49099999999999999</v>
+        <v>0.76770000000000005</v>
       </c>
       <c r="AE8">
-        <v>0.72070000000000001</v>
+        <v>0.52854999999999996</v>
       </c>
       <c r="AF8">
-        <v>0.85570000000000002</v>
+        <v>0.6744</v>
       </c>
       <c r="AG8">
-        <v>0.96950000000000003</v>
+        <v>0.15955</v>
       </c>
       <c r="AH8">
-        <v>0.2555</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="AI8">
-        <v>0.42380000000000001</v>
+        <v>0.63924999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.53554999999999997</v>
+        <v>0.78105000000000002</v>
       </c>
       <c r="AK8">
-        <v>0.41935</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="AL8">
-        <v>0.73035000000000005</v>
+        <v>0.49985000000000002</v>
       </c>
       <c r="AM8">
-        <v>0.30570000000000003</v>
+        <v>0.33155000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.48444999999999999</v>
+        <v>0.64495000000000002</v>
       </c>
       <c r="AO8">
-        <v>0.78439999999999999</v>
+        <v>0.55815000000000003</v>
       </c>
       <c r="AP8">
-        <v>0.46744999999999998</v>
+        <v>0.224</v>
       </c>
       <c r="AQ8">
-        <v>0.4284</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AR8">
-        <v>0.85289999999999999</v>
+        <v>0.57735000000000003</v>
       </c>
       <c r="AS8">
-        <v>0.79139999999999999</v>
+        <v>0.53764999999999996</v>
       </c>
       <c r="AT8">
-        <v>0.87250000000000005</v>
+        <v>0.97814999999999996</v>
       </c>
       <c r="AU8">
-        <v>0.41615000000000002</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="AV8">
-        <v>0.70479999999999998</v>
+        <v>0.55679999999999996</v>
       </c>
       <c r="AW8">
-        <v>0.71560000000000001</v>
+        <v>0.32295000000000001</v>
       </c>
       <c r="AX8">
-        <v>0.66169999999999995</v>
+        <v>0.36570000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.28649999999999998</v>
+        <v>0.46860000000000002</v>
       </c>
       <c r="B9">
-        <v>0.57884999999999998</v>
+        <v>0.2913</v>
       </c>
       <c r="C9">
-        <v>0.46444999999999997</v>
+        <v>0.72670000000000001</v>
       </c>
       <c r="D9">
-        <v>0.55740000000000001</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="E9">
-        <v>0.33815000000000001</v>
+        <v>0.81459999999999999</v>
       </c>
       <c r="F9">
-        <v>0.66695000000000004</v>
+        <v>0.83220000000000005</v>
       </c>
       <c r="G9">
-        <v>7.8100000000000003E-2</v>
+        <v>0.63770000000000004</v>
       </c>
       <c r="H9">
-        <v>0.41660000000000003</v>
+        <v>0.65644999999999998</v>
       </c>
       <c r="I9">
-        <v>0.55864999999999998</v>
+        <v>0.65059999999999996</v>
       </c>
       <c r="J9">
-        <v>0.70774999999999999</v>
+        <v>0.53459999999999996</v>
       </c>
       <c r="K9">
-        <v>0.74250000000000005</v>
+        <v>0.4723</v>
       </c>
       <c r="L9">
-        <v>0.37295</v>
+        <v>0.5464</v>
       </c>
       <c r="M9">
-        <v>0.81635000000000002</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="N9">
-        <v>0.75360000000000005</v>
+        <v>0.42370000000000002</v>
       </c>
       <c r="O9">
-        <v>0.89390000000000003</v>
+        <v>0.2001</v>
       </c>
       <c r="P9">
-        <v>0.66615000000000002</v>
+        <v>0.47115000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.71340000000000003</v>
+        <v>0.87929999999999997</v>
       </c>
       <c r="R9">
-        <v>0.69110000000000005</v>
+        <v>0.82304999999999995</v>
       </c>
       <c r="S9">
-        <v>0.47165000000000001</v>
+        <v>0.75470000000000004</v>
       </c>
       <c r="T9">
-        <v>0.93359999999999999</v>
+        <v>0.75429999999999997</v>
       </c>
       <c r="U9">
-        <v>0.81794999999999995</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="V9">
-        <v>0.51770000000000005</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="W9">
-        <v>0.49959999999999999</v>
+        <v>0.64649999999999996</v>
       </c>
       <c r="X9">
-        <v>0.79700000000000004</v>
+        <v>0.57820000000000005</v>
       </c>
       <c r="Y9">
-        <v>0.63695000000000002</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="Z9">
-        <v>0.4819</v>
+        <v>0.75744999999999996</v>
       </c>
       <c r="AA9">
-        <v>0.55130000000000001</v>
+        <v>0.49225000000000002</v>
       </c>
       <c r="AB9">
-        <v>0.39650000000000002</v>
+        <v>0.91264999999999996</v>
       </c>
       <c r="AC9">
-        <v>0.87224999999999997</v>
+        <v>0.83540000000000003</v>
       </c>
       <c r="AD9">
-        <v>0.54795000000000005</v>
+        <v>0.66515000000000002</v>
       </c>
       <c r="AE9">
-        <v>0.46725</v>
+        <v>0.50424999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.79110000000000003</v>
+        <v>0.57689999999999997</v>
       </c>
       <c r="AG9">
-        <v>0.91439999999999999</v>
+        <v>0.28455000000000003</v>
       </c>
       <c r="AH9">
-        <v>6.6850000000000007E-2</v>
+        <v>0.38729999999999998</v>
       </c>
       <c r="AI9">
-        <v>0.5595</v>
+        <v>0.63214999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.52964999999999995</v>
+        <v>0.66159999999999997</v>
       </c>
       <c r="AK9">
-        <v>0.72835000000000005</v>
+        <v>0.31119999999999998</v>
       </c>
       <c r="AL9">
-        <v>0.78144999999999998</v>
+        <v>0.41194999999999998</v>
       </c>
       <c r="AM9">
-        <v>0.37964999999999999</v>
+        <v>0.61780000000000002</v>
       </c>
       <c r="AN9">
-        <v>0.45434999999999998</v>
+        <v>0.59830000000000005</v>
       </c>
       <c r="AO9">
-        <v>0.69535000000000002</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="AP9">
-        <v>0.4466</v>
+        <v>0.44935000000000003</v>
       </c>
       <c r="AQ9">
-        <v>0.33994999999999997</v>
+        <v>0.37540000000000001</v>
       </c>
       <c r="AR9">
-        <v>0.82045000000000001</v>
+        <v>0.53120000000000001</v>
       </c>
       <c r="AS9">
-        <v>0.71714999999999995</v>
+        <v>0.82445000000000002</v>
       </c>
       <c r="AT9">
-        <v>0.87270000000000003</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="AU9">
-        <v>0.43209999999999998</v>
+        <v>0.30245</v>
       </c>
       <c r="AV9">
-        <v>0.82130000000000003</v>
+        <v>0.70920000000000005</v>
       </c>
       <c r="AW9">
-        <v>0.56759999999999999</v>
+        <v>0.27639999999999998</v>
       </c>
       <c r="AX9">
-        <v>0.74790000000000001</v>
+        <v>0.19889999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.3014</v>
+        <v>0.27865000000000001</v>
       </c>
       <c r="B10">
-        <v>0.58274999999999999</v>
+        <v>0.37504999999999999</v>
       </c>
       <c r="C10">
-        <v>0.31630000000000003</v>
+        <v>0.69040000000000001</v>
       </c>
       <c r="D10">
-        <v>0.78334999999999999</v>
+        <v>0.81315000000000004</v>
       </c>
       <c r="E10">
-        <v>0.34289999999999998</v>
+        <v>0.76829999999999998</v>
       </c>
       <c r="F10">
-        <v>0.74680000000000002</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="G10">
-        <v>4.02E-2</v>
+        <v>0.52334999999999998</v>
       </c>
       <c r="H10">
-        <v>0.46929999999999999</v>
+        <v>0.3538</v>
       </c>
       <c r="I10">
-        <v>0.66</v>
+        <v>0.61160000000000003</v>
       </c>
       <c r="J10">
-        <v>0.71409999999999996</v>
+        <v>0.49419999999999997</v>
       </c>
       <c r="K10">
-        <v>0.71875</v>
+        <v>0.43070000000000003</v>
       </c>
       <c r="L10">
-        <v>0.32615</v>
+        <v>0.70965</v>
       </c>
       <c r="M10">
-        <v>0.70920000000000005</v>
+        <v>0.80735000000000001</v>
       </c>
       <c r="N10">
-        <v>0.74719999999999998</v>
+        <v>0.33524999999999999</v>
       </c>
       <c r="O10">
-        <v>0.93484999999999996</v>
+        <v>0.43780000000000002</v>
       </c>
       <c r="P10">
-        <v>0.52310000000000001</v>
+        <v>0.1477</v>
       </c>
       <c r="Q10">
-        <v>0.63690000000000002</v>
+        <v>0.91369999999999996</v>
       </c>
       <c r="R10">
-        <v>0.55505000000000004</v>
+        <v>0.75705</v>
       </c>
       <c r="S10">
-        <v>0.50209999999999999</v>
+        <v>0.76744999999999997</v>
       </c>
       <c r="T10">
-        <v>0.93779999999999997</v>
+        <v>0.70394999999999996</v>
       </c>
       <c r="U10">
-        <v>0.76790000000000003</v>
+        <v>0.85319999999999996</v>
       </c>
       <c r="V10">
-        <v>0.63834999999999997</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="W10">
-        <v>0.50944999999999996</v>
+        <v>0.59094999999999998</v>
       </c>
       <c r="X10">
-        <v>0.9073</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="Y10">
-        <v>0.43175000000000002</v>
+        <v>0.29265000000000002</v>
       </c>
       <c r="Z10">
-        <v>0.50314999999999999</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="AA10">
-        <v>0.56955</v>
+        <v>0.39360000000000001</v>
       </c>
       <c r="AB10">
-        <v>0.42015000000000002</v>
+        <v>0.86970000000000003</v>
       </c>
       <c r="AC10">
-        <v>0.76390000000000002</v>
+        <v>0.70609999999999995</v>
       </c>
       <c r="AD10">
-        <v>0.67179999999999995</v>
+        <v>0.62670000000000003</v>
       </c>
       <c r="AE10">
-        <v>0.4551</v>
+        <v>0.52564999999999995</v>
       </c>
       <c r="AF10">
-        <v>0.81830000000000003</v>
+        <v>0.43295</v>
       </c>
       <c r="AG10">
-        <v>0.98240000000000005</v>
+        <v>0.44569999999999999</v>
       </c>
       <c r="AH10">
-        <v>7.9100000000000004E-2</v>
+        <v>0.35075000000000001</v>
       </c>
       <c r="AI10">
-        <v>0.55359999999999998</v>
+        <v>0.7591</v>
       </c>
       <c r="AJ10">
-        <v>0.76715</v>
+        <v>0.49385000000000001</v>
       </c>
       <c r="AK10">
-        <v>0.77844999999999998</v>
+        <v>0.1144</v>
       </c>
       <c r="AL10">
-        <v>0.79864999999999997</v>
+        <v>0.44240000000000002</v>
       </c>
       <c r="AM10">
-        <v>0.61170000000000002</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="AN10">
-        <v>0.49020000000000002</v>
+        <v>0.7873</v>
       </c>
       <c r="AO10">
-        <v>0.6089</v>
+        <v>0.2452</v>
       </c>
       <c r="AP10">
-        <v>0.4748</v>
+        <v>0.6956</v>
       </c>
       <c r="AQ10">
-        <v>0.31269999999999998</v>
+        <v>0.43869999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.73080000000000001</v>
+        <v>0.42109999999999997</v>
       </c>
       <c r="AS10">
-        <v>0.65339999999999998</v>
+        <v>0.56459999999999999</v>
       </c>
       <c r="AT10">
-        <v>0.86655000000000004</v>
+        <v>0.87119999999999997</v>
       </c>
       <c r="AU10">
-        <v>0.4123</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="AV10">
-        <v>0.69355</v>
+        <v>0.57525000000000004</v>
       </c>
       <c r="AW10">
-        <v>0.39705000000000001</v>
+        <v>0.41125</v>
       </c>
       <c r="AX10">
-        <v>0.59419999999999995</v>
+        <v>0.16714999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.15939999999999999</v>
+        <v>0.58525000000000005</v>
       </c>
       <c r="B11">
-        <v>0.28434999999999999</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="C11">
-        <v>0.14249999999999999</v>
+        <v>0.75690000000000002</v>
       </c>
       <c r="D11">
-        <v>0.61719999999999997</v>
+        <v>0.65185000000000004</v>
       </c>
       <c r="E11">
-        <v>0.49925000000000003</v>
+        <v>0.71309999999999996</v>
       </c>
       <c r="F11">
-        <v>0.55815000000000003</v>
+        <v>0.86909999999999998</v>
       </c>
       <c r="G11">
-        <v>3.9300000000000002E-2</v>
+        <v>0.53664999999999996</v>
       </c>
       <c r="H11">
-        <v>0.34849999999999998</v>
+        <v>0.63009999999999999</v>
       </c>
       <c r="I11">
-        <v>0.60399999999999998</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="J11">
-        <v>0.6371</v>
+        <v>0.61480000000000001</v>
       </c>
       <c r="K11">
-        <v>0.629</v>
+        <v>0.50875000000000004</v>
       </c>
       <c r="L11">
-        <v>0.42215000000000003</v>
+        <v>0.42120000000000002</v>
       </c>
       <c r="M11">
-        <v>0.61585000000000001</v>
+        <v>0.82825000000000004</v>
       </c>
       <c r="N11">
-        <v>0.72650000000000003</v>
+        <v>0.53764999999999996</v>
       </c>
       <c r="O11">
-        <v>0.81784999999999997</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="P11">
-        <v>0.65054999999999996</v>
+        <v>0.32595000000000002</v>
       </c>
       <c r="Q11">
-        <v>0.54869999999999997</v>
+        <v>0.93884999999999996</v>
       </c>
       <c r="R11">
-        <v>0.63190000000000002</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="S11">
-        <v>0.50805</v>
+        <v>0.52175000000000005</v>
       </c>
       <c r="T11">
-        <v>0.84189999999999998</v>
+        <v>0.66364999999999996</v>
       </c>
       <c r="U11">
-        <v>0.85589999999999999</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="V11">
-        <v>0.42170000000000002</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="W11">
-        <v>0.60745000000000005</v>
+        <v>0.55274999999999996</v>
       </c>
       <c r="X11">
-        <v>0.76790000000000003</v>
+        <v>0.58430000000000004</v>
       </c>
       <c r="Y11">
-        <v>0.59804999999999997</v>
+        <v>0.19539999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.73280000000000001</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="AA11">
-        <v>0.77129999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.4355</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="AC11">
-        <v>0.65544999999999998</v>
+        <v>0.70789999999999997</v>
       </c>
       <c r="AD11">
-        <v>0.59424999999999994</v>
+        <v>0.6411</v>
       </c>
       <c r="AE11">
-        <v>0.45540000000000003</v>
+        <v>0.51639999999999997</v>
       </c>
       <c r="AF11">
-        <v>0.81369999999999998</v>
+        <v>0.32450000000000001</v>
       </c>
       <c r="AG11">
-        <v>0.95740000000000003</v>
+        <v>0.43080000000000002</v>
       </c>
       <c r="AH11">
-        <v>4.8899999999999999E-2</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="AI11">
-        <v>0.57684999999999997</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="AJ11">
-        <v>0.74965000000000004</v>
+        <v>0.34320000000000001</v>
       </c>
       <c r="AK11">
-        <v>0.68884999999999996</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.68149999999999999</v>
+        <v>0.55279999999999996</v>
       </c>
       <c r="AM11">
-        <v>0.50960000000000005</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AN11">
-        <v>0.42394999999999999</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="AO11">
-        <v>0.65959999999999996</v>
+        <v>0.39834999999999998</v>
       </c>
       <c r="AP11">
-        <v>0.51324999999999998</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="AQ11">
-        <v>0.21129999999999999</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="AR11">
-        <v>0.879</v>
+        <v>0.27215</v>
       </c>
       <c r="AS11">
-        <v>0.51980000000000004</v>
+        <v>0.65175000000000005</v>
       </c>
       <c r="AT11">
-        <v>0.87385000000000002</v>
+        <v>0.82340000000000002</v>
       </c>
       <c r="AU11">
-        <v>0.41620000000000001</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="AV11">
-        <v>0.70935000000000004</v>
+        <v>0.6925</v>
       </c>
       <c r="AW11">
-        <v>0.48394999999999999</v>
+        <v>0.50275000000000003</v>
       </c>
       <c r="AX11">
-        <v>0.48744999999999999</v>
+        <v>9.1050000000000006E-2</v>
       </c>
     </row>
   </sheetData>
